--- a/Dashboard/Data/Melsol-test.xlsx
+++ b/Dashboard/Data/Melsol-test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Python\Modelo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\PycharmProjects\InventaryManager\Dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748D6A71-7FA5-4245-8753-A780D26E60F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF27701-6A9C-43F1-BE9D-F556A7E9F41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{E868DD13-13D0-4205-B5B0-02BA8539ECDB}"/>
+    <workbookView xWindow="336" yWindow="3132" windowWidth="17280" windowHeight="8880" xr2:uid="{E868DD13-13D0-4205-B5B0-02BA8539ECDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -449,21 +447,21 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H23"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.765625" customWidth="1"/>
-    <col min="3" max="3" width="17.69140625" customWidth="1"/>
-    <col min="4" max="4" width="18.3046875" customWidth="1"/>
-    <col min="5" max="5" width="20.84375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="16.4609375" customWidth="1"/>
-    <col min="8" max="8" width="13.921875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -509,14 +507,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>10.6</f>
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -543,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -570,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -596,8 +593,9 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -617,14 +615,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -651,7 +648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -678,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -705,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -725,14 +722,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -759,7 +755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -786,7 +782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -813,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -840,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -867,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -894,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -921,7 +917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -948,7 +944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -975,7 +971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>7</v>
       </c>
@@ -1002,7 +998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>8</v>
       </c>
@@ -1029,7 +1025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>9</v>
       </c>
@@ -1056,7 +1052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>10</v>
       </c>
@@ -1086,5 +1082,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>